--- a/discord.xlsx
+++ b/discord.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -49,13 +49,7 @@
     <t xml:space="preserve">mitdb__100_180.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">qtdbsele0606_1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ann_gun_CentroidA1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video recording</t>
+    <t xml:space="preserve">chfdbchf15_1.csv</t>
   </si>
 </sst>
 </file>
@@ -145,17 +139,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -175,15 +165,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.12"/>
@@ -212,85 +202,72 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
         <v>5400</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="0" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
         <v>5401</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>1900</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="0" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1150</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>150</v>
-      </c>
-    </row>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/discord.xlsx
+++ b/discord.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -40,16 +40,16 @@
     <t xml:space="preserve">discord length</t>
   </si>
   <si>
-    <t xml:space="preserve">stdb_308_0.txt</t>
+    <t xml:space="preserve">mitdb__100_180.txt</t>
   </si>
   <si>
     <t xml:space="preserve">ECG</t>
   </si>
   <si>
-    <t xml:space="preserve">mitdb__100_180.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chfdbchf15_1.csv</t>
+    <t xml:space="preserve">ann_gun_CentroidA1.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video recording</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -206,7 +206,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>5400</v>
+        <v>5401</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>7</v>
@@ -215,52 +215,36 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5401</v>
+        <v>2000</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2250</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/discord.xlsx
+++ b/discord.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -40,16 +40,40 @@
     <t xml:space="preserve">discord length</t>
   </si>
   <si>
+    <t xml:space="preserve">stdb_308_0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECG</t>
+  </si>
+  <si>
     <t xml:space="preserve">mitdb__100_180.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">ECG</t>
+    <t xml:space="preserve">mitdbx_mitdbx_108_1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4017;10014;10871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qtdbsele0606_1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chfdbchf15_1.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ann_gun_CentroidA1.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Video recording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dutch_power_demand.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy consumption study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11453;33993;7786;12639</t>
   </si>
 </sst>
 </file>
@@ -165,10 +189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -201,12 +225,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>5401</v>
+        <v>5400</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>7</v>
@@ -215,43 +239,132 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>5401</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>35040</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
